--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
@@ -633,8 +633,12 @@
       <c r="B2" t="n">
         <v>0.5726228392444359</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>3.072906383865932e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002217231224067183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -645,8 +649,12 @@
       <c r="B3" t="n">
         <v>4.088055924830122</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.310481901381304</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.134853793981501e-05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -657,8 +665,12 @@
       <c r="B4" t="n">
         <v>3.959255145789188</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>5.633554804655667e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.439655649403873e-08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.667412495635295</v>
+        <v>0.4318908365057706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00167126171052745</v>
+        <v>0.009435258627475629</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00979762434937137</v>
+        <v>0.03422235126330897</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4866739832059829</v>
+        <v>0.5681091634942295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002820939922391186</v>
+        <v>0.000730393016995956</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03393782817716295</v>
+        <v>0.01373911621442236</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6806774805489773</v>
+        <v>0.8484629433253095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01634537045202777</v>
+        <v>0.008875022963934831</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00016773550305893</v>
+        <v>8.557573900414006e-05</v>
       </c>
     </row>
     <row r="5">
@@ -514,29 +514,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01694321247189008</v>
+        <v>-0.004875163852982749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7993480806374348</v>
+        <v>0.9390074241580671</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8580564922844858</v>
+        <v>0.8641295925660726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l1.gcu through l4.gcu [NEW]</t>
+          <t>l1.cu through l4.cu [NEW]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.01097218944338371</v>
+        <v>-3.04795110294076</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6393788620330336</v>
+        <v>0.2238945625623958</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5321754529884581</v>
+        <v>0.4441695308514058</v>
       </c>
     </row>
     <row r="7">
@@ -546,11 +546,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04361075548137213</v>
+        <v>0.00141953030792704</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.4747272520911272</v>
+        <v>0.9842707269838914</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6693028325173987</v>
+        <v>0.6673077202139782</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5726228392444359</v>
+        <v>0.5403018619407929</v>
       </c>
       <c r="C2" t="n">
-        <v>3.072906383865932e-05</v>
+        <v>5.253177151606476e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002217231224067183</v>
+        <v>0.0003659900059823309</v>
       </c>
     </row>
     <row r="3">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.088055924830122</v>
+        <v>0.9529121868765908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.310481901381304</v>
+        <v>0.01514941267356836</v>
       </c>
       <c r="D3" t="n">
-        <v>4.134853793981501e-05</v>
+        <v>4.579235022134508e-06</v>
       </c>
     </row>
     <row r="4">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.959255145789188</v>
+        <v>3.5981532450205</v>
       </c>
       <c r="C4" t="n">
-        <v>5.633554804655667e-05</v>
+        <v>3.602213589399844e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.439655649403873e-08</v>
+        <v>1.310069128851181e-06</v>
       </c>
     </row>
     <row r="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.565452486049582</v>
+        <v>2.072908519707469</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.264077515957061</v>
+        <v>7.827208655252534</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8257841617704863</v>
+        <v>0.8355209806286752</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4318908365057706</v>
+        <v>0.4318909183042289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009435258627475629</v>
+        <v>0.00943524553303976</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03422235126330897</v>
+        <v>0.03422232713326978</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5681091634942295</v>
+        <v>0.568109081695771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000730393016995956</v>
+        <v>0.0007303942437061339</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01373911621442236</v>
+        <v>0.01373913259236403</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8484629433253095</v>
+        <v>0.8484632160120831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008875022963934831</v>
+        <v>0.008875001766482704</v>
       </c>
       <c r="D4" t="n">
-        <v>8.557573900414006e-05</v>
+        <v>8.557534696651548e-05</v>
       </c>
     </row>
     <row r="5">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004875163852982749</v>
+        <v>-0.004875187348236529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9390074241580671</v>
+        <v>0.9390071307921217</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8641295925660726</v>
+        <v>0.8641294589598382</v>
       </c>
     </row>
     <row r="6">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.04795110294076</v>
+        <v>-3.047948302805418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2238945625623958</v>
+        <v>0.2238949852157976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4441695308514058</v>
+        <v>0.4441683282575996</v>
       </c>
     </row>
     <row r="7">
@@ -546,11 +546,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00141953030792704</v>
+        <v>0.001419503053654736</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.9842707269838914</v>
+        <v>0.9842710289382091</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6673077202139782</v>
+        <v>0.667307728296508</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5403018619407929</v>
+        <v>0.5934328645957667</v>
       </c>
       <c r="C2" t="n">
-        <v>5.253177151606476e-05</v>
+        <v>1.364928244292712e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003659900059823309</v>
+        <v>0.0001104115643712662</v>
       </c>
     </row>
     <row r="3">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9529121868765908</v>
+        <v>0.6441593260346277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01514941267356836</v>
+        <v>0.1219970040973704</v>
       </c>
       <c r="D3" t="n">
-        <v>4.579235022134508e-06</v>
+        <v>2.330505244000601e-05</v>
       </c>
     </row>
     <row r="4">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.5981532450205</v>
+        <v>3.451610643570783</v>
       </c>
       <c r="C4" t="n">
-        <v>3.602213589399844e-05</v>
+        <v>0.000117755333319263</v>
       </c>
       <c r="D4" t="n">
-        <v>1.310069128851181e-06</v>
+        <v>1.757868254029796e-06</v>
       </c>
     </row>
     <row r="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.072908519707469</v>
+        <v>1.584386119635976</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.827208655252534</v>
+        <v>8.489644988493685</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8355209806286752</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model)/summary_stats_new_model.xlsx
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5934328645957667</v>
+        <v>0.5934328645957652</v>
       </c>
       <c r="C2" t="n">
-        <v>1.364928244292712e-05</v>
+        <v>1.364928244292737e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001104115643712662</v>
+        <v>0.0001104115643712736</v>
       </c>
     </row>
     <row r="3">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6441593260346277</v>
+        <v>15.37602248253422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1219970040973704</v>
+        <v>0.1219970040973848</v>
       </c>
       <c r="D3" t="n">
-        <v>2.330505244000601e-05</v>
+        <v>2.330505244000491e-05</v>
       </c>
     </row>
     <row r="4">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.451610643570783</v>
+        <v>3.451610643570803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000117755333319263</v>
+        <v>0.0001177553333192535</v>
       </c>
       <c r="D4" t="n">
-        <v>1.757868254029796e-06</v>
+        <v>1.757868254029659e-06</v>
       </c>
     </row>
     <row r="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.584386119635976</v>
+        <v>37.81914754926367</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.489644988493685</v>
+        <v>8.489644988493703</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
